--- a/group_generate.xlsx
+++ b/group_generate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Groupings" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Referee Conflicts" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Groupings" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Referee Conflicts" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -459,7 +459,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>法律</t>
+          <t>動科</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -474,7 +474,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>經濟</t>
+          <t>國企A</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -489,7 +489,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>土木B</t>
+          <t>化工B</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -504,7 +504,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>森林</t>
+          <t>農藝</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -519,7 +519,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>土木A</t>
+          <t>外文</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -534,7 +534,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>生科</t>
+          <t>經濟</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -549,7 +549,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>物治職治</t>
+          <t>社會社工</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -564,7 +564,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>會計</t>
+          <t>藥學</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -579,7 +579,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>外文</t>
+          <t>化工A</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -594,7 +594,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>園藝</t>
+          <t>電機</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -609,7 +609,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>地質地理</t>
+          <t>植微昆蟲</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -624,7 +624,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>日文戲劇</t>
+          <t>森林</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -639,7 +639,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>動科</t>
+          <t>護理</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -684,7 +684,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>政治B</t>
+          <t>會計</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -699,7 +699,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>材料資工</t>
+          <t>土木A</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -714,7 +714,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>政治A</t>
+          <t>生科</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -729,7 +729,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>化工B</t>
+          <t>地質地理</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -744,7 +744,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>工海</t>
+          <t>財金</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -759,7 +759,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>農化生技</t>
+          <t>農經生工</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -774,7 +774,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>國企A</t>
+          <t>政治A</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -789,7 +789,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>生傳</t>
+          <t>物治職治</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -804,7 +804,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>藥學</t>
+          <t>工海</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -819,7 +819,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>農經生工</t>
+          <t>法律</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -834,7 +834,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>電機</t>
+          <t>園藝</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -849,7 +849,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>機械B</t>
+          <t>生傳</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -864,7 +864,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>國企B</t>
+          <t>人類哲學</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -879,7 +879,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>護理</t>
+          <t>材料資工</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -909,7 +909,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>社會社工</t>
+          <t>中文物理</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -924,7 +924,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>人類哲學</t>
+          <t>國企B</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -939,7 +939,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>農藝</t>
+          <t>政治B</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -954,7 +954,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>財金</t>
+          <t>獸醫</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -969,7 +969,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>化工A</t>
+          <t>農化生技</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -984,7 +984,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>中文物理</t>
+          <t>土木B</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -999,7 +999,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>植微昆蟲</t>
+          <t>機械B</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>獸醫</t>
+          <t>日文戲劇</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1128,10 +1128,10 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1150,7 +1150,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -1230,10 +1230,10 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -1329,19 +1329,19 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
         <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -1437,10 +1437,10 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
         <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -1474,25 +1474,25 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
         <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -1637,10 +1637,10 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
